--- a/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Fn1-Itgb8.xlsx
@@ -528,52 +528,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H2">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J2">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.16524466463928</v>
+        <v>4.237840333333334</v>
       </c>
       <c r="N2">
-        <v>4.16524466463928</v>
+        <v>12.713521</v>
       </c>
       <c r="O2">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="P2">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="Q2">
-        <v>106.4126774229805</v>
+        <v>114.5865650033952</v>
       </c>
       <c r="R2">
-        <v>106.4126774229805</v>
+        <v>1031.279085030557</v>
       </c>
       <c r="S2">
-        <v>0.03017518035525067</v>
+        <v>0.03175663026368997</v>
       </c>
       <c r="T2">
-        <v>0.03017518035525067</v>
+        <v>0.03175663026368998</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>25.5477615340025</v>
+        <v>27.03890566666666</v>
       </c>
       <c r="H3">
-        <v>25.5477615340025</v>
+        <v>81.11671699999999</v>
       </c>
       <c r="I3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033728</v>
       </c>
       <c r="J3">
-        <v>0.06805932265749513</v>
+        <v>0.07096188219033729</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.22935471275158</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N3">
-        <v>5.22935471275158</v>
+        <v>15.695519</v>
       </c>
       <c r="O3">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="P3">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="Q3">
-        <v>133.5983071780895</v>
+        <v>141.4632192101248</v>
       </c>
       <c r="R3">
-        <v>133.5983071780895</v>
+        <v>1273.168972891123</v>
       </c>
       <c r="S3">
-        <v>0.03788414230224446</v>
+        <v>0.0392052519266473</v>
       </c>
       <c r="T3">
-        <v>0.03788414230224446</v>
+        <v>0.03920525192664731</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H4">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I4">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J4">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.16524466463928</v>
+        <v>4.237840333333334</v>
       </c>
       <c r="N4">
-        <v>4.16524466463928</v>
+        <v>12.713521</v>
       </c>
       <c r="O4">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="P4">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="Q4">
-        <v>1422.419308204568</v>
+        <v>1464.45598633822</v>
       </c>
       <c r="R4">
-        <v>1422.419308204568</v>
+        <v>13180.10387704398</v>
       </c>
       <c r="S4">
-        <v>0.4033519332969484</v>
+        <v>0.4058607332736807</v>
       </c>
       <c r="T4">
-        <v>0.4033519332969484</v>
+        <v>0.4058607332736808</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>341.49718029295</v>
+        <v>345.566579</v>
       </c>
       <c r="H5">
-        <v>341.49718029295</v>
+        <v>1036.699737</v>
       </c>
       <c r="I5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350353</v>
       </c>
       <c r="J5">
-        <v>0.909749636939773</v>
+        <v>0.9069174311350354</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.22935471275158</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N5">
-        <v>5.22935471275158</v>
+        <v>15.695519</v>
       </c>
       <c r="O5">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="P5">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="Q5">
-        <v>1785.809889156314</v>
+        <v>1807.9489354865</v>
       </c>
       <c r="R5">
-        <v>1785.809889156314</v>
+        <v>16271.5404193785</v>
       </c>
       <c r="S5">
-        <v>0.5063977036428245</v>
+        <v>0.5010566978613546</v>
       </c>
       <c r="T5">
-        <v>0.5063977036428245</v>
+        <v>0.5010566978613546</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H6">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I6">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J6">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.16524466463928</v>
+        <v>4.237840333333334</v>
       </c>
       <c r="N6">
-        <v>4.16524466463928</v>
+        <v>12.713521</v>
       </c>
       <c r="O6">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="P6">
-        <v>0.4433658634410106</v>
+        <v>0.4475167411500002</v>
       </c>
       <c r="Q6">
-        <v>34.69631979647961</v>
+        <v>35.71964868072623</v>
       </c>
       <c r="R6">
-        <v>34.69631979647961</v>
+        <v>321.4768381265361</v>
       </c>
       <c r="S6">
-        <v>0.009838749788811597</v>
+        <v>0.009899377612629488</v>
       </c>
       <c r="T6">
-        <v>0.009838749788811597</v>
+        <v>0.009899377612629491</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.32995960382183</v>
+        <v>8.428738666666668</v>
       </c>
       <c r="H7">
-        <v>8.32995960382183</v>
+        <v>25.286216</v>
       </c>
       <c r="I7">
-        <v>0.02219104040273193</v>
+        <v>0.0221206866746274</v>
       </c>
       <c r="J7">
-        <v>0.02219104040273193</v>
+        <v>0.02212068667462741</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.22935471275158</v>
+        <v>5.231839666666667</v>
       </c>
       <c r="N7">
-        <v>5.22935471275158</v>
+        <v>15.695519</v>
       </c>
       <c r="O7">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="P7">
-        <v>0.5566341365589893</v>
+        <v>0.5524832588499998</v>
       </c>
       <c r="Q7">
-        <v>43.56031351127598</v>
+        <v>44.09780929623378</v>
       </c>
       <c r="R7">
-        <v>43.56031351127598</v>
+        <v>396.880283666104</v>
       </c>
       <c r="S7">
-        <v>0.01235229061392034</v>
+        <v>0.01222130906199791</v>
       </c>
       <c r="T7">
-        <v>0.01235229061392034</v>
+        <v>0.01222130906199792</v>
       </c>
     </row>
   </sheetData>
